--- a/Visitors_identify/zhongqicount/data_report/quanliang.xlsx
+++ b/Visitors_identify/zhongqicount/data_report/quanliang.xlsx
@@ -1070,7 +1070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
@@ -1125,806 +1125,862 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n"/>
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>测试切换企业</t>
+        </is>
+      </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>102292</t>
+          <t>访客识别-0722001</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D2" s="5" t="n">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>4944</v>
+        <v>8</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>254</v>
+        <v>3</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>3421</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n"/>
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>演示或测试专用企业法定名称</t>
+        </is>
+      </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>119536</t>
+          <t>上海励销信息科技有限公司</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>14,30</t>
         </is>
       </c>
       <c r="D3" s="5" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1278</v>
+        <v>2</v>
       </c>
       <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>演示或测试专用企业法定名称</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>励销云【搜客宝+机器人+CRM】名称</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>9,11,12,19,7</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>14358</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>389176</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>22070</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>172758</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>中企动力信息技术有限公司北京分公司</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>中企动力访客识别测试账号</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>15,17</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>16002</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1753785</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>26365</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>258230</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>中企对接BMS</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>中企对接-BMS-001gf-user-BMS-001</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>20,21</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>张翠翠</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>张翠翠238428</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>张翠</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>张翠238431</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>张三240264</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>北京中企网动力数码科技有限公司</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>中企高呈</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>744</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>46469</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1312</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>14289</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>朱盼恒</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>朱盼恒131915</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>24,27,32,112</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>163</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2590</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>191</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>测试240995</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>谭美琴</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>谭美琴162931</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2853</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>173</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>陶扬</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>陶扬220251</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>28,53</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>931</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>林纯钢</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>林纯钢220108</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>31,33</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>579</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>方鑫</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>方鑫220243</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>114,49</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>973</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>尚炜尧</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>尚炜尧142956</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>1699</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>45820</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>2715</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>12218</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>卢珍珍</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>卢珍珍234149</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>229</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>贾晓宁</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>贾晓宁138093</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>669</v>
+      </c>
+      <c r="F19" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="G3" s="5" t="n">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="n"/>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>119968</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>945</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>41</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="n"/>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>151032</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>740</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="n"/>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>158640</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>1532</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>27</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="n"/>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>165493</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>90</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="n"/>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>166805</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>805</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>29</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="n"/>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>170738</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>1475</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="n"/>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>177058</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>2809</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>26</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="n"/>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>179199</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>970</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="n"/>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>193694</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>947</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>44</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="n"/>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>202466</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>37</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>872</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>53</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="n"/>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>207477</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>39,37</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>1516</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>34</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="n"/>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>208701</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>837</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="n"/>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>212788</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="n"/>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>213411</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>47</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="n"/>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>227851</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>148</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="n"/>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>230304</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>3</v>
-      </c>
       <c r="G19" s="5" t="n">
-        <v>37</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n"/>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>235372</t>
+          <t>119536</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>299</v>
+        <v>1456</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>256</v>
+        <v>715</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="n"/>
       <c r="B21" s="5" t="inlineStr">
         <is>
-          <t>246670</t>
+          <t>26082</t>
         </is>
       </c>
       <c r="C21" s="5" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0</v>
+        <v>7377</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="n"/>
       <c r="B22" s="5" t="inlineStr">
         <is>
-          <t>26082</t>
+          <t>207477</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>37,39</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4263</v>
+        <v>2774</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1593</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="n"/>
       <c r="B23" s="5" t="inlineStr">
         <is>
-          <t>35283</t>
+          <t>151032</t>
         </is>
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1192</v>
+        <v>1034</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>703</v>
+        <v>721</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="n"/>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>49132</t>
+          <t>177058</t>
         </is>
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1246</v>
+        <v>3046</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>802</v>
+        <v>892</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="n"/>
       <c r="B25" s="5" t="inlineStr">
         <is>
-          <t>82474</t>
+          <t>235372</t>
         </is>
       </c>
       <c r="C25" s="5" t="inlineStr">
         <is>
-          <t>38,42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>750</v>
+        <v>322</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>495</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="n"/>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>上海策永自动化科技有限公司214261</t>
+          <t>208701</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>79</v>
+        <v>921</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>55</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="n"/>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>大连统鑫油压机械有限公司206441</t>
+          <t>179199</t>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>82</v>
+        <v>1551</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>71</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="n"/>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>广东光达电气股份有限公司120690</t>
+          <t>170738</t>
         </is>
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2601</v>
+        <v>2003</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="G28" s="5" t="n">
-        <v>1485</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>东莞市振伦塑胶制品有限公司</t>
-        </is>
-      </c>
+      <c r="A29" s="6" t="n"/>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>东莞市振伦塑胶制品有限公司226669</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="n"/>
+          <t>82474</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>38,42</t>
+        </is>
+      </c>
       <c r="D29" s="5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0</v>
+        <v>931</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="inlineStr">
-        <is>
-          <t>中企动力信息技术有限公司北京分公司</t>
-        </is>
-      </c>
+      <c r="A30" s="6" t="n"/>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>中企动力访客识别测试账号</t>
+          <t>158640</t>
         </is>
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>15,17</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D30" s="5" t="n">
-        <v>16002</v>
+        <v>31</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1753785</v>
+        <v>2092</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26365</v>
+        <v>51</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>258230</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="inlineStr">
-        <is>
-          <t>中企对接BMS</t>
-        </is>
-      </c>
+      <c r="A31" s="6" t="n"/>
       <c r="B31" s="5" t="inlineStr">
         <is>
-          <t>中企对接-BMS-001gf-user-BMS-001</t>
+          <t>102292</t>
         </is>
       </c>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>20,21</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4</v>
+        <v>8572</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1</v>
+        <v>389</v>
       </c>
       <c r="G31" s="5" t="n">
-        <v>0</v>
+        <v>6023</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="inlineStr">
-        <is>
-          <t>中合天华（北京）知识产权代理有限公司</t>
-        </is>
-      </c>
+      <c r="A32" s="6" t="n"/>
       <c r="B32" s="5" t="inlineStr">
         <is>
-          <t>中合天华（北京）知识产权代理有限公司192147</t>
+          <t>165493</t>
         </is>
       </c>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D32" s="5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G32" s="5" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="inlineStr">
-        <is>
-          <t>中山市红捷电子有限公司</t>
-        </is>
-      </c>
+      <c r="A33" s="6" t="n"/>
       <c r="B33" s="5" t="inlineStr">
         <is>
-          <t>中山市红捷电子有限公司213896</t>
+          <t>212788</t>
         </is>
       </c>
       <c r="C33" s="5" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D33" s="5" t="n">
@@ -1941,328 +1997,308 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="inlineStr">
-        <is>
-          <t>介休市创新实业有限公司</t>
-        </is>
-      </c>
+      <c r="A34" s="6" t="n"/>
       <c r="B34" s="5" t="inlineStr">
         <is>
-          <t>介休市创新实业有限公司133462</t>
+          <t>35283</t>
         </is>
       </c>
       <c r="C34" s="5" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0</v>
+        <v>1356</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G34" s="5" t="n">
-        <v>0</v>
+        <v>783</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="inlineStr">
-        <is>
-          <t>佛山市顺德区活创实业有限公司</t>
-        </is>
-      </c>
+      <c r="A35" s="6" t="n"/>
       <c r="B35" s="5" t="inlineStr">
         <is>
-          <t>佛山市顺德区活创实业有限公司53268</t>
-        </is>
-      </c>
-      <c r="C35" s="5" t="n"/>
+          <t>119968</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="D35" s="5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0</v>
+        <v>1160</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0</v>
+        <v>790</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="inlineStr">
-        <is>
-          <t>倍得福机械科技（常州）股份有限公司</t>
-        </is>
-      </c>
+      <c r="A36" s="6" t="n"/>
       <c r="B36" s="5" t="inlineStr">
         <is>
-          <t>倍得福机械科技（常州）股份有限公司225617</t>
+          <t>193694</t>
         </is>
       </c>
       <c r="C36" s="5" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>76</v>
+        <v>1104</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>56</v>
+        <v>636</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="inlineStr">
-        <is>
-          <t>北京中企网动力数码科技有限公司</t>
-        </is>
-      </c>
+      <c r="A37" s="6" t="n"/>
       <c r="B37" s="5" t="inlineStr">
         <is>
-          <t>中企高呈</t>
+          <t>202466</t>
         </is>
       </c>
       <c r="C37" s="5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D37" s="5" t="n">
-        <v>636</v>
+        <v>47</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>43600</v>
+        <v>1066</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1143</v>
+        <v>66</v>
       </c>
       <c r="G37" s="5" t="n">
-        <v>12806</v>
+        <v>735</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="inlineStr">
         <is>
-          <t>北京新网数码信息技术有限公司</t>
+          <t>辽宁同泽减震器有限公司</t>
         </is>
       </c>
       <c r="B38" s="5" t="inlineStr">
         <is>
-          <t>北京新网数码信息技术有限公司</t>
-        </is>
-      </c>
-      <c r="C38" s="5" t="n"/>
+          <t>辽宁同泽减震器有限公司92099</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
       <c r="D38" s="5" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>0</v>
+        <v>2607</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="G38" s="5" t="n">
-        <v>0</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="inlineStr">
-        <is>
-          <t>南京蓝奥环保设备有限公司</t>
-        </is>
-      </c>
+      <c r="A39" s="6" t="n"/>
       <c r="B39" s="5" t="inlineStr">
         <is>
-          <t>南京蓝奥环保设备有限公司230527</t>
+          <t>246670</t>
         </is>
       </c>
       <c r="C39" s="5" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D39" s="5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G39" s="5" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="inlineStr">
         <is>
-          <t>南通励销信息技术有限公司</t>
+          <t>石家庄东方紫铜浮雕工艺品有限公司</t>
         </is>
       </c>
       <c r="B40" s="5" t="inlineStr">
         <is>
-          <t>微问家客保中心</t>
-        </is>
-      </c>
-      <c r="C40" s="5" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
+          <t>石家庄东方紫铜浮雕工艺品有限公司44218</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n"/>
       <c r="D40" s="5" t="n">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>7397</v>
+        <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>826</v>
+        <v>0</v>
       </c>
       <c r="G40" s="5" t="n">
-        <v>4979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>卢珍珍</t>
-        </is>
-      </c>
+      <c r="A41" s="6" t="n"/>
       <c r="B41" s="5" t="inlineStr">
         <is>
-          <t>卢珍珍234149</t>
+          <t>广东光达电气股份有限公司120690</t>
         </is>
       </c>
       <c r="C41" s="5" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D41" s="5" t="n">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>205</v>
+        <v>3956</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>171</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="inlineStr">
         <is>
-          <t>嘉兴弘博电气有限公司</t>
+          <t>常州市耐力工具厂</t>
         </is>
       </c>
       <c r="B42" s="5" t="inlineStr">
         <is>
-          <t>嘉兴弘博电气有限公司154518</t>
+          <t>常州市耐力工具厂140857</t>
         </is>
       </c>
       <c r="C42" s="5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>四川憨憨豆匠食品有限公司</t>
-        </is>
-      </c>
+      <c r="A43" s="6" t="n"/>
       <c r="B43" s="5" t="inlineStr">
         <is>
-          <t>四川憨憨豆匠食品有限公司154504</t>
+          <t>230304</t>
         </is>
       </c>
       <c r="C43" s="5" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D43" s="5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G43" s="5" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="inlineStr">
         <is>
-          <t>天津市鸿大色母粒有限公司</t>
+          <t>河北永达电机制造有限公司</t>
         </is>
       </c>
       <c r="B44" s="5" t="inlineStr">
         <is>
-          <t>天津市鸿大色母粒有限公司218623</t>
+          <t>河北永达电机制造有限公司230585</t>
         </is>
       </c>
       <c r="C44" s="5" t="inlineStr">
         <is>
-          <t>71,92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D44" s="5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G44" s="5" t="n">
-        <v>653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="inlineStr">
         <is>
-          <t>安徽泰莱保温科技有限公司</t>
+          <t>河北天佑体育设施有限公司</t>
         </is>
       </c>
       <c r="B45" s="5" t="inlineStr">
         <is>
-          <t>安徽泰莱保温科技有限公司158297</t>
-        </is>
-      </c>
-      <c r="C45" s="5" t="n"/>
+          <t>河北天佑体育设施有限公司157064</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
       <c r="D45" s="5" t="n">
         <v>0</v>
       </c>
@@ -2279,388 +2315,376 @@
     <row r="46">
       <c r="A46" s="5" t="inlineStr">
         <is>
-          <t>尚炜尧</t>
+          <t>深圳市意控科技有限公司</t>
         </is>
       </c>
       <c r="B46" s="5" t="inlineStr">
         <is>
-          <t>尚炜尧142956</t>
+          <t>深圳市意控科技有限公司52747</t>
         </is>
       </c>
       <c r="C46" s="5" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D46" s="5" t="n">
-        <v>1370</v>
+        <v>120</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>40039</v>
+        <v>2915</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>2180</v>
+        <v>177</v>
       </c>
       <c r="G46" s="5" t="n">
-        <v>9653</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="inlineStr">
         <is>
-          <t>常州市恒骏电机有限公司</t>
+          <t>衡水福桥淀粉有限公司</t>
         </is>
       </c>
       <c r="B47" s="5" t="inlineStr">
         <is>
-          <t>常州市恒骏电机有限公司46586</t>
-        </is>
-      </c>
-      <c r="C47" s="5" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
+          <t>衡水福桥淀粉有限公司180341</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="n"/>
       <c r="D47" s="5" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1738</v>
+        <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="inlineStr">
         <is>
-          <t>常州市耐力工具厂</t>
+          <t>倍得福机械科技（常州）股份有限公司</t>
         </is>
       </c>
       <c r="B48" s="5" t="inlineStr">
         <is>
-          <t>常州市耐力工具厂140857</t>
+          <t>倍得福机械科技（常州）股份有限公司225617</t>
         </is>
       </c>
       <c r="C48" s="5" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0</v>
+        <v>817</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="inlineStr">
-        <is>
-          <t>广州市俱辉化工有限公司</t>
-        </is>
-      </c>
+      <c r="A49" s="6" t="n"/>
       <c r="B49" s="5" t="inlineStr">
         <is>
-          <t>广州市俱辉化工有限公司166065</t>
-        </is>
-      </c>
-      <c r="C49" s="5" t="n"/>
+          <t>227851</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
       <c r="D49" s="5" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>0</v>
+        <v>918</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="G49" s="5" t="n">
-        <v>0</v>
+        <v>810</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="inlineStr">
-        <is>
-          <t>广州悟真健康科技有限公司</t>
-        </is>
-      </c>
+      <c r="A50" s="6" t="n"/>
       <c r="B50" s="5" t="inlineStr">
         <is>
-          <t>广州悟真健康科技有限公司20822</t>
+          <t>213411</t>
         </is>
       </c>
       <c r="C50" s="5" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D50" s="5" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="G50" s="5" t="n">
-        <v>158</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="inlineStr">
-        <is>
-          <t>广西南宁市华星电子衡器有限责任公司</t>
-        </is>
-      </c>
+      <c r="A51" s="6" t="n"/>
       <c r="B51" s="5" t="inlineStr">
         <is>
-          <t>广西南宁市华星电子衡器有限责任公司67092</t>
+          <t>166805</t>
         </is>
       </c>
       <c r="C51" s="5" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D51" s="5" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>207</v>
+        <v>1003</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G51" s="5" t="n">
-        <v>96</v>
+        <v>572</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="inlineStr">
-        <is>
-          <t>广西恩龙机械设备有限公司</t>
-        </is>
-      </c>
+      <c r="A52" s="6" t="n"/>
       <c r="B52" s="5" t="inlineStr">
         <is>
-          <t>广西恩龙机械设备有限公司235524</t>
+          <t>49132</t>
         </is>
       </c>
       <c r="C52" s="5" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D52" s="5" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>46</v>
+        <v>1646</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="G52" s="5" t="n">
-        <v>26</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="inlineStr">
         <is>
-          <t>广西金茂钛业有限公司</t>
+          <t>天津市鸿大色母粒有限公司</t>
         </is>
       </c>
       <c r="B53" s="5" t="inlineStr">
         <is>
-          <t>广西金茂钛业有限公司223687</t>
+          <t>天津市鸿大色母粒有限公司218623</t>
         </is>
       </c>
       <c r="C53" s="5" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>71,92</t>
         </is>
       </c>
       <c r="D53" s="5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>82</v>
+        <v>6515</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>60</v>
+        <v>6263</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="inlineStr">
         <is>
-          <t>张三</t>
+          <t>常州市恒骏电机有限公司</t>
         </is>
       </c>
       <c r="B54" s="5" t="inlineStr">
         <is>
-          <t>张三240264</t>
+          <t>常州市恒骏电机有限公司46586</t>
         </is>
       </c>
       <c r="C54" s="5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D54" s="5" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>4</v>
+        <v>4174</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="inlineStr">
         <is>
-          <t>张翠</t>
+          <t>邢台力天轴承制造有限公司</t>
         </is>
       </c>
       <c r="B55" s="5" t="inlineStr">
         <is>
-          <t>张翠238431</t>
+          <t>邢台力天轴承制造有限公司165377</t>
         </is>
       </c>
       <c r="C55" s="5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D55" s="5" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>13</v>
+        <v>2017</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="G55" s="5" t="n">
-        <v>4</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="inlineStr">
         <is>
-          <t>张翠翠</t>
+          <t>江苏达伟金属制品有限公司</t>
         </is>
       </c>
       <c r="B56" s="5" t="inlineStr">
         <is>
-          <t>张翠翠238428</t>
+          <t>江苏达伟金属制品有限公司239886</t>
         </is>
       </c>
       <c r="C56" s="5" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D56" s="5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G56" s="5" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="inlineStr">
         <is>
-          <t>惠州市源立实业有限公司</t>
+          <t>石家庄森雨不锈钢制品有限公司</t>
         </is>
       </c>
       <c r="B57" s="5" t="inlineStr">
         <is>
-          <t>惠州市源立实业有限公司168912</t>
+          <t>石家庄森雨不锈钢制品有限公司237932</t>
         </is>
       </c>
       <c r="C57" s="5" t="inlineStr">
         <is>
-          <t>100,94</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D57" s="5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G57" s="5" t="n">
-        <v>202</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="inlineStr">
         <is>
-          <t>惠州广诚会计师事务所</t>
+          <t>贺州兴塑新材料科技有限公司</t>
         </is>
       </c>
       <c r="B58" s="5" t="inlineStr">
         <is>
-          <t>惠州广诚会计师事务所217846</t>
+          <t>贺州兴塑新材料科技有限公司219226</t>
         </is>
       </c>
       <c r="C58" s="5" t="inlineStr">
         <is>
-          <t>101,102</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D58" s="5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E58" s="5" t="n">
         <v>77</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G58" s="5" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="inlineStr">
         <is>
-          <t>成都秋叶原商贸有限公司</t>
+          <t>通州区石港镇越洋机械厂</t>
         </is>
       </c>
       <c r="B59" s="5" t="inlineStr">
         <is>
-          <t>成都秋叶原商贸有限公司50299</t>
-        </is>
-      </c>
-      <c r="C59" s="5" t="n"/>
+          <t>通州区石港镇越洋机械厂220589</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
       <c r="D59" s="5" t="n">
         <v>0</v>
       </c>
@@ -2677,17 +2701,17 @@
     <row r="60">
       <c r="A60" s="5" t="inlineStr">
         <is>
-          <t>扬州正艺试验机械有限公司</t>
+          <t>四川憨憨豆匠食品有限公司</t>
         </is>
       </c>
       <c r="B60" s="5" t="inlineStr">
         <is>
-          <t>扬州正艺试验机械有限公司210979</t>
+          <t>四川憨憨豆匠食品有限公司154504</t>
         </is>
       </c>
       <c r="C60" s="5" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D60" s="5" t="n">
@@ -2704,222 +2728,214 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="inlineStr">
-        <is>
-          <t>方鑫</t>
-        </is>
-      </c>
+      <c r="A61" s="6" t="n"/>
       <c r="B61" s="5" t="inlineStr">
         <is>
-          <t>方鑫220243</t>
+          <t>上海策永自动化科技有限公司214261</t>
         </is>
       </c>
       <c r="C61" s="5" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D61" s="5" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>897</v>
+        <v>238</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G61" s="5" t="n">
-        <v>458</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="5" t="inlineStr">
         <is>
-          <t>本溪光远环境工程有限公司</t>
+          <t>黑山县万程膨润土有限责任公司</t>
         </is>
       </c>
       <c r="B62" s="5" t="inlineStr">
         <is>
-          <t>本溪光远环境工程有限公司248281</t>
+          <t>黑山县万程膨润土有限责任公司202227</t>
         </is>
       </c>
       <c r="C62" s="5" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D62" s="5" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>49</v>
+        <v>990</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="G62" s="5" t="n">
-        <v>33</v>
+        <v>579</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="inlineStr">
         <is>
-          <t>朱盼恒</t>
+          <t>广西恩龙机械设备有限公司</t>
         </is>
       </c>
       <c r="B63" s="5" t="inlineStr">
         <is>
-          <t>朱盼恒131915</t>
+          <t>广西恩龙机械设备有限公司235524</t>
         </is>
       </c>
       <c r="C63" s="5" t="inlineStr">
         <is>
-          <t>27,32,24</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D63" s="5" t="n">
-        <v>158</v>
+        <v>8</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>2522</v>
+        <v>213</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="G63" s="5" t="n">
-        <v>1439</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="5" t="inlineStr">
         <is>
-          <t>林纯钢</t>
+          <t>嘉兴弘博电气有限公司</t>
         </is>
       </c>
       <c r="B64" s="5" t="inlineStr">
         <is>
-          <t>林纯钢220108</t>
+          <t>嘉兴弘博电气有限公司154518</t>
         </is>
       </c>
       <c r="C64" s="5" t="inlineStr">
         <is>
-          <t>31,33</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D64" s="5" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>436</v>
+        <v>0</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G64" s="5" t="n">
-        <v>379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="inlineStr">
         <is>
-          <t>江苏达伟金属制品有限公司</t>
+          <t>介休市创新实业有限公司</t>
         </is>
       </c>
       <c r="B65" s="5" t="inlineStr">
         <is>
-          <t>江苏达伟金属制品有限公司239886</t>
+          <t>介休市创新实业有限公司133462</t>
         </is>
       </c>
       <c r="C65" s="5" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D65" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G65" s="5" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="5" t="inlineStr">
         <is>
-          <t>沈阳世锐喷砂机械设备有限公司</t>
+          <t>成都秋叶原商贸有限公司</t>
         </is>
       </c>
       <c r="B66" s="5" t="inlineStr">
         <is>
-          <t>沈阳世锐喷砂机械设备有限公司161594</t>
-        </is>
-      </c>
-      <c r="C66" s="5" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
+          <t>成都秋叶原商贸有限公司50299</t>
+        </is>
+      </c>
+      <c r="C66" s="5" t="n"/>
       <c r="D66" s="5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G66" s="5" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="5" t="inlineStr">
         <is>
-          <t>河北天佑体育设施有限公司</t>
+          <t>深圳智航精密科技有限公司</t>
         </is>
       </c>
       <c r="B67" s="5" t="inlineStr">
         <is>
-          <t>河北天佑体育设施有限公司157064</t>
+          <t>深圳智航精密科技有限公司228053</t>
         </is>
       </c>
       <c r="C67" s="5" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>82,105</t>
         </is>
       </c>
       <c r="D67" s="5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G67" s="5" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="5" t="inlineStr">
         <is>
-          <t>河北恒金泰环保科技有限公司</t>
+          <t>中合天华（北京）知识产权代理有限公司</t>
         </is>
       </c>
       <c r="B68" s="5" t="inlineStr">
         <is>
-          <t>河北恒金泰环保科技有限公司129107</t>
+          <t>中合天华（北京）知识产权代理有限公司192147</t>
         </is>
       </c>
       <c r="C68" s="5" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D68" s="5" t="n">
@@ -2938,131 +2954,135 @@
     <row r="69">
       <c r="A69" s="5" t="inlineStr">
         <is>
-          <t>河北永达电机制造有限公司</t>
+          <t>南京蓝奥环保设备有限公司</t>
         </is>
       </c>
       <c r="B69" s="5" t="inlineStr">
         <is>
-          <t>河北永达电机制造有限公司230585</t>
+          <t>南京蓝奥环保设备有限公司230527</t>
         </is>
       </c>
       <c r="C69" s="5" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D69" s="5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>0</v>
+        <v>1207</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G69" s="5" t="n">
-        <v>0</v>
+        <v>892</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="5" t="inlineStr">
         <is>
-          <t>测试</t>
+          <t>广州悟真健康科技有限公司</t>
         </is>
       </c>
       <c r="B70" s="5" t="inlineStr">
         <is>
-          <t>测试240995</t>
+          <t>广州悟真健康科技有限公司20822</t>
         </is>
       </c>
       <c r="C70" s="5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D70" s="5" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>5</v>
+        <v>391</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G70" s="5" t="n">
-        <v>2</v>
+        <v>284</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="5" t="inlineStr">
         <is>
-          <t>测试切换企业</t>
+          <t>长沙山乙建筑装饰设计有限公司</t>
         </is>
       </c>
       <c r="B71" s="5" t="inlineStr">
         <is>
-          <t>访客识别-0722001</t>
+          <t>长沙山乙建筑装饰设计有限公司214398</t>
         </is>
       </c>
       <c r="C71" s="5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D71" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G71" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="5" t="inlineStr">
         <is>
-          <t>深圳市意控科技有限公司</t>
+          <t>扬州正艺试验机械有限公司</t>
         </is>
       </c>
       <c r="B72" s="5" t="inlineStr">
         <is>
-          <t>深圳市意控科技有限公司52747</t>
+          <t>扬州正艺试验机械有限公司210979</t>
         </is>
       </c>
       <c r="C72" s="5" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D72" s="5" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>2404</v>
+        <v>119</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="G72" s="5" t="n">
-        <v>1329</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="5" t="inlineStr">
         <is>
-          <t>深圳市智德兴科技有限公司</t>
+          <t>苏州江科新能源科技有限公司</t>
         </is>
       </c>
       <c r="B73" s="5" t="inlineStr">
         <is>
-          <t>深圳市智德兴科技有限公司211285</t>
-        </is>
-      </c>
-      <c r="C73" s="5" t="n"/>
+          <t>苏州江科新能源科技有限公司174969</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
       <c r="D73" s="5" t="n">
         <v>0</v>
       </c>
@@ -3079,153 +3099,153 @@
     <row r="74">
       <c r="A74" s="5" t="inlineStr">
         <is>
-          <t>深圳市维爱普电子有限公司</t>
+          <t>广西金茂钛业有限公司</t>
         </is>
       </c>
       <c r="B74" s="5" t="inlineStr">
         <is>
-          <t>深圳市维爱普电子有限公司218535</t>
-        </is>
-      </c>
-      <c r="C74" s="5" t="n"/>
+          <t>广西金茂钛业有限公司223687</t>
+        </is>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
       <c r="D74" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G74" s="5" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="5" t="inlineStr">
         <is>
-          <t>深圳智航精密科技有限公司</t>
+          <t>本溪光远环境工程有限公司</t>
         </is>
       </c>
       <c r="B75" s="5" t="inlineStr">
         <is>
-          <t>深圳智航精密科技有限公司228053</t>
+          <t>本溪光远环境工程有限公司248281</t>
         </is>
       </c>
       <c r="C75" s="5" t="inlineStr">
         <is>
-          <t>82,105</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D75" s="5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G75" s="5" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="5" t="inlineStr">
         <is>
-          <t>湖北沣沛环保科技发展有限公司</t>
+          <t>广西南宁市华星电子衡器有限责任公司</t>
         </is>
       </c>
       <c r="B76" s="5" t="inlineStr">
         <is>
-          <t>湖北沣沛环保科技发展有限公司246941</t>
+          <t>广西南宁市华星电子衡器有限责任公司67092</t>
         </is>
       </c>
       <c r="C76" s="5" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D76" s="5" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G76" s="5" t="n">
-        <v>0</v>
+        <v>553</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="5" t="inlineStr">
         <is>
-          <t>演示或测试专用企业法定名称</t>
+          <t>安徽泰莱保温科技有限公司</t>
         </is>
       </c>
       <c r="B77" s="5" t="inlineStr">
         <is>
-          <t>上海励销信息科技有限公司</t>
-        </is>
-      </c>
-      <c r="C77" s="5" t="inlineStr">
-        <is>
-          <t>14,30</t>
-        </is>
-      </c>
+          <t>安徽泰莱保温科技有限公司158297</t>
+        </is>
+      </c>
+      <c r="C77" s="5" t="n"/>
       <c r="D77" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="5" t="inlineStr">
         <is>
-          <t>演示或测试专用企业法定名称</t>
+          <t>惠州市源立实业有限公司</t>
         </is>
       </c>
       <c r="B78" s="5" t="inlineStr">
         <is>
-          <t>励销云【搜客宝+机器人+CRM】名称</t>
+          <t>惠州市源立实业有限公司168912</t>
         </is>
       </c>
       <c r="C78" s="5" t="inlineStr">
         <is>
-          <t>7,9,11,12,19</t>
+          <t>94,100</t>
         </is>
       </c>
       <c r="D78" s="5" t="n">
-        <v>14357</v>
+        <v>55</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>389136</v>
+        <v>666</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>22070</v>
+        <v>81</v>
       </c>
       <c r="G78" s="5" t="n">
-        <v>172758</v>
+        <v>551</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="5" t="inlineStr">
         <is>
-          <t>石家庄东方紫铜浮雕工艺品有限公司</t>
+          <t>深圳市维爱普电子有限公司</t>
         </is>
       </c>
       <c r="B79" s="5" t="inlineStr">
         <is>
-          <t>石家庄东方紫铜浮雕工艺品有限公司44218</t>
+          <t>深圳市维爱普电子有限公司218535</t>
         </is>
       </c>
       <c r="C79" s="5" t="n"/>
@@ -3245,48 +3265,40 @@
     <row r="80">
       <c r="A80" s="5" t="inlineStr">
         <is>
-          <t>石家庄森雨不锈钢制品有限公司</t>
+          <t>北京新网数码信息技术有限公司</t>
         </is>
       </c>
       <c r="B80" s="5" t="inlineStr">
         <is>
-          <t>石家庄森雨不锈钢制品有限公司237932</t>
-        </is>
-      </c>
-      <c r="C80" s="5" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
+          <t>北京新网数码信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="C80" s="5" t="n"/>
       <c r="D80" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G80" s="5" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="inlineStr">
         <is>
-          <t>苏州江科新能源科技有限公司</t>
+          <t>广州市俱辉化工有限公司</t>
         </is>
       </c>
       <c r="B81" s="5" t="inlineStr">
         <is>
-          <t>苏州江科新能源科技有限公司174969</t>
-        </is>
-      </c>
-      <c r="C81" s="5" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
+          <t>广州市俱辉化工有限公司166065</t>
+        </is>
+      </c>
+      <c r="C81" s="5" t="n"/>
       <c r="D81" s="5" t="n">
         <v>0</v>
       </c>
@@ -3303,15 +3315,19 @@
     <row r="82">
       <c r="A82" s="5" t="inlineStr">
         <is>
-          <t>衡水福桥淀粉有限公司</t>
+          <t>河北恒金泰环保科技有限公司</t>
         </is>
       </c>
       <c r="B82" s="5" t="inlineStr">
         <is>
-          <t>衡水福桥淀粉有限公司180341</t>
-        </is>
-      </c>
-      <c r="C82" s="5" t="n"/>
+          <t>河北恒金泰环保科技有限公司129107</t>
+        </is>
+      </c>
+      <c r="C82" s="5" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
       <c r="D82" s="5" t="n">
         <v>0</v>
       </c>
@@ -3328,218 +3344,214 @@
     <row r="83">
       <c r="A83" s="5" t="inlineStr">
         <is>
-          <t>谭美琴</t>
+          <t>沈阳世锐喷砂机械设备有限公司</t>
         </is>
       </c>
       <c r="B83" s="5" t="inlineStr">
         <is>
-          <t>谭美琴162931</t>
+          <t>沈阳世锐喷砂机械设备有限公司161594</t>
         </is>
       </c>
       <c r="C83" s="5" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D83" s="5" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>2636</v>
+        <v>143</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="G83" s="5" t="n">
-        <v>1187</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="5" t="inlineStr">
         <is>
-          <t>贺州兴塑新材料科技有限公司</t>
+          <t>惠州广诚会计师事务所</t>
         </is>
       </c>
       <c r="B84" s="5" t="inlineStr">
         <is>
-          <t>贺州兴塑新材料科技有限公司219226</t>
+          <t>惠州广诚会计师事务所217846</t>
         </is>
       </c>
       <c r="C84" s="5" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>102,101</t>
         </is>
       </c>
       <c r="D84" s="5" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>27</v>
+        <v>580</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="G84" s="5" t="n">
-        <v>12</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="5" t="inlineStr">
         <is>
-          <t>贾晓宁</t>
+          <t>中山市红捷电子有限公司</t>
         </is>
       </c>
       <c r="B85" s="5" t="inlineStr">
         <is>
-          <t>贾晓宁138093</t>
+          <t>中山市红捷电子有限公司213896</t>
         </is>
       </c>
       <c r="C85" s="5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D85" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G85" s="5" t="n">
-        <v>404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="5" t="inlineStr">
         <is>
-          <t>起跑线创业孵化器股份有限公司</t>
+          <t>南通励销信息技术有限公司</t>
         </is>
       </c>
       <c r="B86" s="5" t="inlineStr">
         <is>
-          <t>起跑线创业孵化器股份有限公司</t>
-        </is>
-      </c>
-      <c r="C86" s="5" t="n"/>
+          <t>微问家客保中心</t>
+        </is>
+      </c>
+      <c r="C86" s="5" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
       <c r="D86" s="5" t="n">
-        <v>0</v>
+        <v>3195</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>0</v>
+        <v>40701</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>0</v>
+        <v>4344</v>
       </c>
       <c r="G86" s="5" t="n">
-        <v>0</v>
+        <v>30566</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="5" t="inlineStr">
         <is>
-          <t>辽宁同泽减震器有限公司</t>
+          <t>东莞市振伦塑胶制品有限公司</t>
         </is>
       </c>
       <c r="B87" s="5" t="inlineStr">
         <is>
-          <t>辽宁同泽减震器有限公司92099</t>
+          <t>东莞市振伦塑胶制品有限公司226669</t>
         </is>
       </c>
       <c r="C87" s="5" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D87" s="5" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>575</v>
+        <v>0</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G87" s="5" t="n">
-        <v>474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="5" t="inlineStr">
-        <is>
-          <t>通州区石港镇越洋机械厂</t>
-        </is>
-      </c>
+      <c r="A88" s="5" t="n"/>
       <c r="B88" s="5" t="inlineStr">
         <is>
-          <t>通州区石港镇越洋机械厂220589</t>
+          <t>大连统鑫油压机械有限公司206441</t>
         </is>
       </c>
       <c r="C88" s="5" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D88" s="5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>0</v>
+        <v>1182</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G88" s="5" t="n">
-        <v>0</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="5" t="inlineStr">
         <is>
-          <t>邢台力天轴承制造有限公司</t>
+          <t>长沙道源智慧流体科技有限公司</t>
         </is>
       </c>
       <c r="B89" s="5" t="inlineStr">
         <is>
-          <t>邢台力天轴承制造有限公司165377</t>
+          <t>长沙道源智慧流体科技有限公司101359</t>
         </is>
       </c>
       <c r="C89" s="5" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D89" s="5" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G89" s="5" t="n">
-        <v>265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="5" t="inlineStr">
         <is>
-          <t>长沙山乙建筑装饰设计有限公司</t>
+          <t>佛山市顺德区活创实业有限公司</t>
         </is>
       </c>
       <c r="B90" s="5" t="inlineStr">
         <is>
-          <t>长沙山乙建筑装饰设计有限公司214398</t>
-        </is>
-      </c>
-      <c r="C90" s="5" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
+          <t>佛山市顺德区活创实业有限公司53268</t>
+        </is>
+      </c>
+      <c r="C90" s="5" t="n"/>
       <c r="D90" s="5" t="n">
         <v>0</v>
       </c>
@@ -3556,94 +3568,352 @@
     <row r="91">
       <c r="A91" s="5" t="inlineStr">
         <is>
-          <t>长沙道源智慧流体科技有限公司</t>
+          <t>湖北沣沛环保科技发展有限公司</t>
         </is>
       </c>
       <c r="B91" s="5" t="inlineStr">
         <is>
-          <t>长沙道源智慧流体科技有限公司101359</t>
-        </is>
-      </c>
-      <c r="C91" s="5" t="n"/>
+          <t>湖北沣沛环保科技发展有限公司246941</t>
+        </is>
+      </c>
+      <c r="C91" s="5" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
       <c r="D91" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" s="5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="5" t="inlineStr">
         <is>
-          <t>陶扬</t>
+          <t>深圳市智德兴科技有限公司</t>
         </is>
       </c>
       <c r="B92" s="5" t="inlineStr">
         <is>
-          <t>陶扬220251</t>
-        </is>
-      </c>
-      <c r="C92" s="5" t="inlineStr">
-        <is>
-          <t>28,53</t>
-        </is>
-      </c>
+          <t>深圳市智德兴科技有限公司211285</t>
+        </is>
+      </c>
+      <c r="C92" s="5" t="n"/>
       <c r="D92" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>897</v>
+        <v>0</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G92" s="5" t="n">
-        <v>356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="5" t="inlineStr">
         <is>
-          <t>黑山县万程膨润土有限责任公司</t>
+          <t>起跑线创业孵化器股份有限公司</t>
         </is>
       </c>
       <c r="B93" s="5" t="inlineStr">
         <is>
-          <t>黑山县万程膨润土有限责任公司202227</t>
-        </is>
-      </c>
-      <c r="C93" s="5" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
+          <t>起跑线创业孵化器股份有限公司</t>
+        </is>
+      </c>
+      <c r="C93" s="5" t="n"/>
       <c r="D93" s="5" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>791</v>
+        <v>0</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G93" s="5" t="n">
-        <v>430</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="6" t="n"/>
-      <c r="B94" s="6" t="n"/>
+      <c r="A94" s="6" t="inlineStr">
+        <is>
+          <t>沈阳实力电机制造有限公司</t>
+        </is>
+      </c>
+      <c r="B94" s="6" t="inlineStr">
+        <is>
+          <t>沈阳实力电机制造有限公司202787</t>
+        </is>
+      </c>
       <c r="C94" s="6" t="n"/>
-      <c r="D94" s="6" t="n"/>
-      <c r="E94" s="6" t="n"/>
-      <c r="F94" s="6" t="n"/>
-      <c r="G94" s="6" t="n"/>
+      <c r="D94" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>中效科技发展集团股份公司</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>中效科技发展集团股份公司239813</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>唐山硕泽商贸有限公司</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>唐山硕泽商贸有限公司133023</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>6</v>
+      </c>
+      <c r="E96" t="n">
+        <v>36</v>
+      </c>
+      <c r="F96" t="n">
+        <v>9</v>
+      </c>
+      <c r="G96" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>弗格森输送机械（常州）有限公司</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>弗格森输送机械（常州）有限公司175229</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>81</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1605</v>
+      </c>
+      <c r="F97" t="n">
+        <v>154</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>莱州鲁俊粉末冶金有限公司</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>莱州鲁俊粉末冶金有限公司226980</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>焦作市巨航特种设备有限公司</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>焦作市巨航特种设备有限公司195796</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>湖北智信生物医药科技有限公司</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>湖北智信生物医药科技有限公司241841</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>13</v>
+      </c>
+      <c r="E100" t="n">
+        <v>304</v>
+      </c>
+      <c r="F100" t="n">
+        <v>19</v>
+      </c>
+      <c r="G100" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>江门恒敏电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>江门恒敏电子科技有限公司86085</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>江苏中正照明集团有限公司</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>江苏中正照明集团有限公司141113</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>南通鑫辰家居用品有限公司</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>南通鑫辰家居用品有限公司213998</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
